--- a/in/cfg_2.xlsx
+++ b/in/cfg_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2130" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="3075" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
